--- a/Plots/MDA_DataBook_mapping.xlsx
+++ b/Plots/MDA_DataBook_mapping.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/bychkovs_who_int/Documents/Documents/STEPS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/rakovaci_who_int/Documents/NCD (1)/STEPs/Country data/STEPS EURO data/STEPS EURO data anon/MDA_2021_STEPS/DataBook/Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1091" documentId="8_{FC9006FC-0195-5042-A4D0-63813C14121B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FEDF8BD-FD41-1D4B-B561-AC17144E1804}"/>
+  <xr:revisionPtr revIDLastSave="1141" documentId="8_{FC9006FC-0195-5042-A4D0-63813C14121B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C66BE9-58F4-824B-9843-B3F905CEC10B}"/>
   <bookViews>
-    <workbookView xWindow="12260" yWindow="500" windowWidth="16540" windowHeight="16600" xr2:uid="{35027181-8D1F-4C47-B468-0C511EE20AD8}"/>
+    <workbookView xWindow="8860" yWindow="500" windowWidth="19940" windowHeight="16600" xr2:uid="{35027181-8D1F-4C47-B468-0C511EE20AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$195</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="784">
   <si>
     <t>script_name</t>
   </si>
@@ -2305,12 +2305,6 @@
     <t>1) Underweight &lt;18.5;2) Normal weight 18.5-24.9</t>
   </si>
   <si>
-    <t>1) blood glucose &lt;6.1;3) blood glucose &gt;=7.0 or took meds today</t>
-  </si>
-  <si>
-    <t>1) blood glucose &lt;6.1;2) blood glucose &gt;=6.1 AND &lt;7.0</t>
-  </si>
-  <si>
     <t>2) not currently on treatment for raised blood glucose;3) incomplete information regarding treatment for raised blood glucose</t>
   </si>
   <si>
@@ -2366,6 +2360,36 @@
   </si>
   <si>
     <t>2) not on medication</t>
+  </si>
+  <si>
+    <t>1) blood glucose &lt;6.1</t>
+  </si>
+  <si>
+    <t>pcomposition_work_list_long</t>
+  </si>
+  <si>
+    <t>pcomposition_trans_list_long</t>
+  </si>
+  <si>
+    <t>pcomposition_rec_list_long</t>
+  </si>
+  <si>
+    <t>pcomposition_rec</t>
+  </si>
+  <si>
+    <t>pcomposition_trans</t>
+  </si>
+  <si>
+    <t>pcomposition_work</t>
+  </si>
+  <si>
+    <t>Activity from work</t>
+  </si>
+  <si>
+    <t>Activity for transport</t>
+  </si>
+  <si>
+    <t>Activity during leisure time</t>
   </si>
 </sst>
 </file>
@@ -2381,12 +2405,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2401,8 +2431,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2717,11 +2749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683DBB0C-090F-B94F-B48C-D3FDF1FE3576}">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97:H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3151,8 +3183,8 @@
       <c r="G16" t="s">
         <v>313</v>
       </c>
-      <c r="H16">
-        <v>1</v>
+      <c r="H16" s="1">
+        <v>7</v>
       </c>
       <c r="I16" t="s">
         <v>722</v>
@@ -3180,8 +3212,8 @@
       <c r="G17" t="s">
         <v>313</v>
       </c>
-      <c r="H17">
-        <v>1</v>
+      <c r="H17" s="1">
+        <v>7</v>
       </c>
       <c r="I17" t="s">
         <v>723</v>
@@ -4679,8 +4711,8 @@
       <c r="G72" t="s">
         <v>313</v>
       </c>
-      <c r="H72">
-        <v>1</v>
+      <c r="H72" s="1">
+        <v>3</v>
       </c>
       <c r="I72" t="s">
         <v>721</v>
@@ -5318,8 +5350,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" t="b">
-        <v>1</v>
+      <c r="A96" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="B96" t="s">
         <v>135</v>
@@ -5344,83 +5376,80 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" t="b">
-        <v>1</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="A97" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C97" t="s">
-        <v>157</v>
-      </c>
-      <c r="D97" t="s">
-        <v>410</v>
-      </c>
-      <c r="E97" t="s">
-        <v>602</v>
-      </c>
-      <c r="F97" t="s">
-        <v>156</v>
-      </c>
-      <c r="G97" t="s">
-        <v>313</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97" t="s">
-        <v>734</v>
+      <c r="C97" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" t="b">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="A98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C98" t="s">
-        <v>159</v>
-      </c>
-      <c r="D98" t="s">
-        <v>411</v>
-      </c>
-      <c r="E98" t="s">
-        <v>603</v>
-      </c>
-      <c r="F98" t="s">
-        <v>158</v>
-      </c>
-      <c r="G98" t="s">
-        <v>314</v>
-      </c>
-      <c r="H98">
+      <c r="C98" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H98" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" t="b">
-        <v>1</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="A99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C99" t="s">
-        <v>159</v>
-      </c>
-      <c r="D99" t="s">
-        <v>412</v>
-      </c>
-      <c r="E99" t="s">
-        <v>604</v>
-      </c>
-      <c r="F99" t="s">
-        <v>158</v>
-      </c>
-      <c r="G99" t="s">
-        <v>317</v>
-      </c>
-      <c r="H99">
+      <c r="C99" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H99" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5429,25 +5458,28 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D100" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E100" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F100" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G100" t="s">
         <v>313</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -5455,28 +5487,25 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C101" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D101" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E101" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F101" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G101" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H101">
         <v>1</v>
-      </c>
-      <c r="I101" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -5484,28 +5513,25 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C102" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D102" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E102" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F102" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G102" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H102">
         <v>1</v>
-      </c>
-      <c r="I102" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -5516,25 +5542,22 @@
         <v>160</v>
       </c>
       <c r="C103" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D103" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E103" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F103" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G103" t="s">
         <v>313</v>
       </c>
       <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103" t="s">
-        <v>737</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -5542,25 +5565,28 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C104" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D104" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E104" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F104" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G104" t="s">
         <v>313</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -5568,19 +5594,19 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D105" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E105" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F105" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G105" t="s">
         <v>313</v>
@@ -5589,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -5597,19 +5623,19 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D106" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E106" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F106" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G106" t="s">
         <v>313</v>
@@ -5618,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -5629,25 +5655,22 @@
         <v>167</v>
       </c>
       <c r="C107" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D107" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E107" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F107" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G107" t="s">
         <v>313</v>
       </c>
       <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107" t="s">
-        <v>736</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -5658,16 +5681,16 @@
         <v>167</v>
       </c>
       <c r="C108" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D108" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E108" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F108" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G108" t="s">
         <v>313</v>
@@ -5676,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -5684,25 +5707,28 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C109" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D109" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E109" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F109" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G109" t="s">
         <v>313</v>
       </c>
       <c r="H109">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -5710,19 +5736,19 @@
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C110" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D110" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E110" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F110" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G110" t="s">
         <v>313</v>
@@ -5731,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -5739,19 +5765,19 @@
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C111" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D111" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E111" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F111" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G111" t="s">
         <v>313</v>
@@ -5760,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -5771,25 +5797,22 @@
         <v>175</v>
       </c>
       <c r="C112" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D112" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E112" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F112" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G112" t="s">
         <v>313</v>
       </c>
       <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112" t="s">
-        <v>737</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -5797,19 +5820,19 @@
         <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C113" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D113" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E113" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F113" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G113" t="s">
         <v>313</v>
@@ -5818,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -5826,19 +5849,19 @@
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D114" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E114" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F114" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G114" t="s">
         <v>313</v>
@@ -5847,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -5855,19 +5878,19 @@
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C115" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D115" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E115" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F115" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G115" t="s">
         <v>313</v>
@@ -5876,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -5887,16 +5910,16 @@
         <v>183</v>
       </c>
       <c r="C116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D116" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E116" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F116" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G116" t="s">
         <v>313</v>
@@ -5905,7 +5928,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -5919,13 +5942,13 @@
         <v>188</v>
       </c>
       <c r="D117" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E117" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F117" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G117" t="s">
         <v>313</v>
@@ -5934,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -5942,19 +5965,19 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C118" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D118" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E118" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F118" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G118" t="s">
         <v>313</v>
@@ -5963,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -5971,19 +5994,19 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D119" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E119" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F119" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G119" t="s">
         <v>313</v>
@@ -5992,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -6000,19 +6023,19 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C120" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D120" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E120" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F120" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G120" t="s">
         <v>313</v>
@@ -6021,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -6035,13 +6058,13 @@
         <v>199</v>
       </c>
       <c r="D121" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E121" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F121" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G121" t="s">
         <v>313</v>
@@ -6050,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -6064,13 +6087,13 @@
         <v>199</v>
       </c>
       <c r="D122" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E122" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F122" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G122" t="s">
         <v>313</v>
@@ -6079,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -6093,13 +6116,13 @@
         <v>199</v>
       </c>
       <c r="D123" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E123" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F123" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G123" t="s">
         <v>313</v>
@@ -6108,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -6122,13 +6145,13 @@
         <v>199</v>
       </c>
       <c r="D124" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E124" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F124" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G124" t="s">
         <v>313</v>
@@ -6137,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -6145,19 +6168,19 @@
         <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C125" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D125" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E125" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F125" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G125" t="s">
         <v>313</v>
@@ -6166,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -6174,19 +6197,19 @@
         <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C126" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D126" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E126" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F126" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G126" t="s">
         <v>313</v>
@@ -6195,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -6203,25 +6226,28 @@
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C127" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D127" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E127" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F127" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G127" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H127">
         <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -6229,25 +6255,28 @@
         <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C128" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D128" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E128" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F128" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G128" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H128">
         <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -6255,19 +6284,19 @@
         <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C129" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D129" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E129" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F129" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G129" t="s">
         <v>313</v>
@@ -6276,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -6287,25 +6316,22 @@
         <v>204</v>
       </c>
       <c r="C130" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D130" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E130" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F130" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G130" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H130">
         <v>1</v>
-      </c>
-      <c r="I130" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -6316,25 +6342,22 @@
         <v>204</v>
       </c>
       <c r="C131" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D131" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E131" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F131" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G131" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H131">
         <v>1</v>
-      </c>
-      <c r="I131" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -6348,13 +6371,13 @@
         <v>212</v>
       </c>
       <c r="D132" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E132" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F132" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G132" t="s">
         <v>313</v>
@@ -6363,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -6377,19 +6400,22 @@
         <v>212</v>
       </c>
       <c r="D133" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E133" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F133" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G133" t="s">
         <v>313</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I133" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -6400,22 +6426,25 @@
         <v>204</v>
       </c>
       <c r="C134" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D134" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E134" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F134" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G134" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H134">
         <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -6426,22 +6455,25 @@
         <v>204</v>
       </c>
       <c r="C135" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D135" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E135" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F135" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G135" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H135">
         <v>1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -6452,22 +6484,22 @@
         <v>204</v>
       </c>
       <c r="C136" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D136" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E136" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F136" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G136" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -6478,16 +6510,16 @@
         <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D137" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E137" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F137" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G137" t="s">
         <v>314</v>
@@ -6504,22 +6536,22 @@
         <v>204</v>
       </c>
       <c r="C138" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D138" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E138" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F138" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G138" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H138">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -6530,25 +6562,22 @@
         <v>204</v>
       </c>
       <c r="C139" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D139" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E139" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F139" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G139" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H139">
         <v>1</v>
-      </c>
-      <c r="I139" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -6559,16 +6588,16 @@
         <v>204</v>
       </c>
       <c r="C140" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D140" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E140" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F140" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G140" t="s">
         <v>314</v>
@@ -6582,25 +6611,25 @@
         <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C141" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D141" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E141" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F141" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G141" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -6608,25 +6637,28 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C142" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D142" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E142" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F142" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G142" t="s">
-        <v>314</v>
-      </c>
-      <c r="H142">
-        <v>1</v>
+        <v>313</v>
+      </c>
+      <c r="H142" s="2">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -6634,28 +6666,25 @@
         <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C143" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D143" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E143" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F143" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G143" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H143">
         <v>1</v>
-      </c>
-      <c r="I143" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -6669,22 +6698,19 @@
         <v>228</v>
       </c>
       <c r="D144" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E144" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F144" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G144" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H144">
         <v>1</v>
-      </c>
-      <c r="I144" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -6698,22 +6724,19 @@
         <v>228</v>
       </c>
       <c r="D145" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E145" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F145" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G145" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H145">
         <v>1</v>
-      </c>
-      <c r="I145" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -6727,22 +6750,22 @@
         <v>228</v>
       </c>
       <c r="D146" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E146" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F146" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G146" t="s">
         <v>313</v>
       </c>
-      <c r="H146">
-        <v>3</v>
+      <c r="H146" s="1">
+        <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -6753,22 +6776,25 @@
         <v>225</v>
       </c>
       <c r="C147" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D147" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E147" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F147" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G147" t="s">
-        <v>314</v>
-      </c>
-      <c r="H147">
-        <v>1</v>
+        <v>313</v>
+      </c>
+      <c r="H147" s="1">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -6779,22 +6805,25 @@
         <v>225</v>
       </c>
       <c r="C148" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D148" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E148" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F148" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G148" t="s">
-        <v>314</v>
-      </c>
-      <c r="H148">
-        <v>1</v>
+        <v>313</v>
+      </c>
+      <c r="H148" s="2">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -6805,25 +6834,25 @@
         <v>225</v>
       </c>
       <c r="C149" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D149" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E149" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F149" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G149" t="s">
         <v>313</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -6837,22 +6866,19 @@
         <v>235</v>
       </c>
       <c r="D150" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E150" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F150" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G150" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H150">
         <v>1</v>
-      </c>
-      <c r="I150" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -6866,22 +6892,19 @@
         <v>235</v>
       </c>
       <c r="D151" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E151" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F151" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G151" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H151">
         <v>1</v>
-      </c>
-      <c r="I151" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -6895,13 +6918,13 @@
         <v>235</v>
       </c>
       <c r="D152" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E152" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F152" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G152" t="s">
         <v>313</v>
@@ -6910,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -6918,19 +6941,19 @@
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C153" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D153" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E153" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F153" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G153" t="s">
         <v>313</v>
@@ -6939,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -6947,19 +6970,19 @@
         <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C154" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D154" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E154" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F154" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G154" t="s">
         <v>313</v>
@@ -6968,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -6976,25 +6999,28 @@
         <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C155" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D155" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E155" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F155" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G155" t="s">
         <v>313</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I155" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -7002,25 +7028,28 @@
         <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C156" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D156" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E156" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F156" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G156" t="s">
         <v>313</v>
       </c>
       <c r="H156">
         <v>1</v>
+      </c>
+      <c r="I156" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -7028,25 +7057,28 @@
         <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C157" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D157" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E157" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F157" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G157" t="s">
         <v>313</v>
       </c>
       <c r="H157">
         <v>1</v>
+      </c>
+      <c r="I157" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -7054,25 +7086,25 @@
         <v>1</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C158" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D158" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E158" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F158" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G158" t="s">
         <v>313</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -7083,16 +7115,16 @@
         <v>246</v>
       </c>
       <c r="C159" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D159" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E159" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F159" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G159" t="s">
         <v>313</v>
@@ -7109,16 +7141,16 @@
         <v>246</v>
       </c>
       <c r="C160" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D160" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E160" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F160" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G160" t="s">
         <v>313</v>
@@ -7127,7 +7159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="b">
         <v>1</v>
       </c>
@@ -7135,16 +7167,16 @@
         <v>246</v>
       </c>
       <c r="C161" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D161" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E161" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F161" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G161" t="s">
         <v>313</v>
@@ -7153,7 +7185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="b">
         <v>1</v>
       </c>
@@ -7161,25 +7193,25 @@
         <v>246</v>
       </c>
       <c r="C162" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D162" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E162" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F162" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G162" t="s">
         <v>313</v>
       </c>
       <c r="H162">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="b">
         <v>1</v>
       </c>
@@ -7187,16 +7219,16 @@
         <v>246</v>
       </c>
       <c r="C163" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D163" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E163" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F163" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G163" t="s">
         <v>313</v>
@@ -7205,7 +7237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="b">
         <v>1</v>
       </c>
@@ -7213,25 +7245,25 @@
         <v>246</v>
       </c>
       <c r="C164" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D164" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E164" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F164" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G164" t="s">
         <v>313</v>
       </c>
       <c r="H164">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="b">
         <v>1</v>
       </c>
@@ -7239,16 +7271,16 @@
         <v>246</v>
       </c>
       <c r="C165" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D165" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E165" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F165" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G165" t="s">
         <v>313</v>
@@ -7257,7 +7289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="b">
         <v>1</v>
       </c>
@@ -7265,25 +7297,25 @@
         <v>246</v>
       </c>
       <c r="C166" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D166" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E166" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F166" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G166" t="s">
         <v>313</v>
       </c>
       <c r="H166">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="b">
         <v>1</v>
       </c>
@@ -7291,25 +7323,25 @@
         <v>246</v>
       </c>
       <c r="C167" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D167" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E167" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F167" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G167" t="s">
         <v>313</v>
       </c>
       <c r="H167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="b">
         <v>1</v>
       </c>
@@ -7317,25 +7349,25 @@
         <v>246</v>
       </c>
       <c r="C168" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D168" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E168" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F168" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G168" t="s">
         <v>313</v>
       </c>
       <c r="H168">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="b">
         <v>1</v>
       </c>
@@ -7343,25 +7375,25 @@
         <v>246</v>
       </c>
       <c r="C169" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D169" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E169" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F169" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G169" t="s">
         <v>313</v>
       </c>
       <c r="H169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="b">
         <v>1</v>
       </c>
@@ -7369,16 +7401,16 @@
         <v>246</v>
       </c>
       <c r="C170" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D170" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E170" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F170" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G170" t="s">
         <v>313</v>
@@ -7387,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="b">
         <v>1</v>
       </c>
@@ -7395,25 +7427,25 @@
         <v>246</v>
       </c>
       <c r="C171" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D171" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E171" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F171" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G171" t="s">
         <v>313</v>
       </c>
       <c r="H171">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="b">
         <v>1</v>
       </c>
@@ -7421,25 +7453,25 @@
         <v>246</v>
       </c>
       <c r="C172" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D172" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E172" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F172" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G172" t="s">
         <v>313</v>
       </c>
       <c r="H172">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="b">
         <v>1</v>
       </c>
@@ -7447,25 +7479,25 @@
         <v>246</v>
       </c>
       <c r="C173" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D173" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E173" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F173" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G173" t="s">
         <v>313</v>
       </c>
       <c r="H173">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="b">
         <v>1</v>
       </c>
@@ -7473,16 +7505,16 @@
         <v>246</v>
       </c>
       <c r="C174" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D174" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E174" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F174" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G174" t="s">
         <v>313</v>
@@ -7491,7 +7523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="b">
         <v>1</v>
       </c>
@@ -7499,51 +7531,48 @@
         <v>246</v>
       </c>
       <c r="C175" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D175" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E175" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F175" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G175" t="s">
         <v>313</v>
       </c>
       <c r="H175">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="b">
         <v>1</v>
       </c>
       <c r="B176" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="C176" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D176" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E176" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F176" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G176" t="s">
         <v>313</v>
       </c>
       <c r="H176">
-        <v>1</v>
-      </c>
-      <c r="I176" t="s">
-        <v>763</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -7551,28 +7580,25 @@
         <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="C177" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D177" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E177" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F177" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G177" t="s">
         <v>313</v>
       </c>
       <c r="H177">
-        <v>1</v>
-      </c>
-      <c r="I177" t="s">
-        <v>763</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -7580,28 +7606,25 @@
         <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="C178" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D178" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E178" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F178" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G178" t="s">
         <v>313</v>
       </c>
       <c r="H178">
-        <v>1</v>
-      </c>
-      <c r="I178" t="s">
-        <v>764</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -7612,16 +7635,16 @@
         <v>286</v>
       </c>
       <c r="C179" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D179" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E179" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F179" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G179" t="s">
         <v>313</v>
@@ -7630,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -7641,16 +7664,16 @@
         <v>286</v>
       </c>
       <c r="C180" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D180" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E180" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F180" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G180" t="s">
         <v>313</v>
@@ -7659,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -7670,16 +7693,16 @@
         <v>286</v>
       </c>
       <c r="C181" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D181" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E181" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F181" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G181" t="s">
         <v>313</v>
@@ -7688,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -7699,22 +7722,25 @@
         <v>286</v>
       </c>
       <c r="C182" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D182" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E182" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F182" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G182" t="s">
         <v>313</v>
       </c>
       <c r="H182">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="I182" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -7725,16 +7751,16 @@
         <v>286</v>
       </c>
       <c r="C183" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D183" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E183" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F183" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G183" t="s">
         <v>313</v>
@@ -7743,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -7754,16 +7780,16 @@
         <v>286</v>
       </c>
       <c r="C184" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D184" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E184" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F184" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G184" t="s">
         <v>313</v>
@@ -7772,7 +7798,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -7783,25 +7809,22 @@
         <v>286</v>
       </c>
       <c r="C185" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D185" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E185" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F185" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G185" t="s">
         <v>313</v>
       </c>
       <c r="H185">
-        <v>1</v>
-      </c>
-      <c r="I185" t="s">
-        <v>770</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -7812,16 +7835,16 @@
         <v>286</v>
       </c>
       <c r="C186" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D186" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E186" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F186" t="s">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G186" t="s">
         <v>313</v>
@@ -7830,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -7841,16 +7864,16 @@
         <v>286</v>
       </c>
       <c r="C187" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D187" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E187" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F187" t="s">
-        <v>502</v>
+        <v>301</v>
       </c>
       <c r="G187" t="s">
         <v>313</v>
@@ -7859,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -7867,19 +7890,19 @@
         <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C188" t="s">
-        <v>503</v>
+        <v>304</v>
       </c>
       <c r="D188" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E188" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F188" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G188" t="s">
         <v>313</v>
@@ -7888,7 +7911,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -7896,19 +7919,19 @@
         <v>1</v>
       </c>
       <c r="B189" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C189" t="s">
-        <v>503</v>
+        <v>305</v>
       </c>
       <c r="D189" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E189" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F189" t="s">
-        <v>308</v>
+        <v>500</v>
       </c>
       <c r="G189" t="s">
         <v>313</v>
@@ -7917,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -7925,19 +7948,19 @@
         <v>1</v>
       </c>
       <c r="B190" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C190" t="s">
-        <v>503</v>
+        <v>305</v>
       </c>
       <c r="D190" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E190" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F190" t="s">
-        <v>309</v>
+        <v>502</v>
       </c>
       <c r="G190" t="s">
         <v>313</v>
@@ -7946,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -7960,13 +7983,13 @@
         <v>503</v>
       </c>
       <c r="D191" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E191" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F191" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G191" t="s">
         <v>313</v>
@@ -7975,7 +7998,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -7989,26 +8012,113 @@
         <v>503</v>
       </c>
       <c r="D192" t="s">
+        <v>505</v>
+      </c>
+      <c r="E192" t="s">
+        <v>694</v>
+      </c>
+      <c r="F192" t="s">
+        <v>308</v>
+      </c>
+      <c r="G192" t="s">
+        <v>313</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" t="b">
+        <v>1</v>
+      </c>
+      <c r="B193" t="s">
+        <v>306</v>
+      </c>
+      <c r="C193" t="s">
+        <v>503</v>
+      </c>
+      <c r="D193" t="s">
+        <v>506</v>
+      </c>
+      <c r="E193" t="s">
+        <v>695</v>
+      </c>
+      <c r="F193" t="s">
+        <v>309</v>
+      </c>
+      <c r="G193" t="s">
+        <v>313</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" t="b">
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
+        <v>306</v>
+      </c>
+      <c r="C194" t="s">
+        <v>503</v>
+      </c>
+      <c r="D194" t="s">
+        <v>507</v>
+      </c>
+      <c r="E194" t="s">
+        <v>696</v>
+      </c>
+      <c r="F194" t="s">
+        <v>310</v>
+      </c>
+      <c r="G194" t="s">
+        <v>313</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" t="b">
+        <v>1</v>
+      </c>
+      <c r="B195" t="s">
+        <v>306</v>
+      </c>
+      <c r="C195" t="s">
+        <v>503</v>
+      </c>
+      <c r="D195" t="s">
         <v>508</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E195" t="s">
         <v>697</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F195" t="s">
         <v>311</v>
       </c>
-      <c r="G192" t="s">
-        <v>313</v>
-      </c>
-      <c r="H192">
-        <v>1</v>
-      </c>
-      <c r="I192" t="s">
-        <v>775</v>
+      <c r="G195" t="s">
+        <v>313</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195" t="s">
+        <v>773</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I192" xr:uid="{683DBB0C-090F-B94F-B48C-D3FDF1FE3576}"/>
+  <autoFilter ref="A1:I195" xr:uid="{683DBB0C-090F-B94F-B48C-D3FDF1FE3576}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plots/MDA_DataBook_mapping.xlsx
+++ b/Plots/MDA_DataBook_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/rakovaci_who_int/Documents/NCD (1)/STEPs/Country data/STEPS EURO data/STEPS EURO data anon/MDA_2021_STEPS/DataBook/Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1141" documentId="8_{FC9006FC-0195-5042-A4D0-63813C14121B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C66BE9-58F4-824B-9843-B3F905CEC10B}"/>
+  <xr:revisionPtr revIDLastSave="1182" documentId="8_{FC9006FC-0195-5042-A4D0-63813C14121B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A483D497-E8C7-DF4E-9D77-04D6E2E8D858}"/>
   <bookViews>
     <workbookView xWindow="8860" yWindow="500" windowWidth="19940" windowHeight="16600" xr2:uid="{35027181-8D1F-4C47-B468-0C511EE20AD8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$202</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="805">
   <si>
     <t>script_name</t>
   </si>
@@ -2390,6 +2390,69 @@
   </si>
   <si>
     <t>Activity during leisure time</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5a_list_long</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5b_list_long</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5c_list_long</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5d_list_long</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5e_list_long</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5f_list_long</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5g_list_long</t>
+  </si>
+  <si>
+    <t>Mean amount of manufactured cigarettes</t>
+  </si>
+  <si>
+    <t>Mean amount of hand-rolled cigarettes</t>
+  </si>
+  <si>
+    <t>Mean amount of pipes of tobacco</t>
+  </si>
+  <si>
+    <t>Mean amount of cigars, cheerots, cigarillos</t>
+  </si>
+  <si>
+    <t>Mean amount of shisha sessions</t>
+  </si>
+  <si>
+    <t>Mean amount of heated tobacco products</t>
+  </si>
+  <si>
+    <t>Mean amount of other type of tobacco</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5a</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5b</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5c</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5d</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5e</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5f</t>
+  </si>
+  <si>
+    <t>tsmoketype_t5g</t>
   </si>
 </sst>
 </file>
@@ -2749,11 +2812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683DBB0C-090F-B94F-B48C-D3FDF1FE3576}">
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97:H99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3136,8 +3199,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="b">
-        <v>1</v>
+      <c r="A15" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3162,200 +3225,185 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>331</v>
-      </c>
-      <c r="E16" t="s">
-        <v>525</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>313</v>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="H16" s="1">
-        <v>7</v>
-      </c>
-      <c r="I16" t="s">
-        <v>722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>332</v>
-      </c>
-      <c r="E17" t="s">
-        <v>526</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>313</v>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="H17" s="1">
-        <v>7</v>
-      </c>
-      <c r="I17" t="s">
-        <v>723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="b">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>333</v>
-      </c>
-      <c r="E18" t="s">
-        <v>527</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>313</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>334</v>
-      </c>
-      <c r="E19" t="s">
-        <v>528</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>313</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>702</v>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>335</v>
-      </c>
-      <c r="E20" t="s">
-        <v>529</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" t="s">
-        <v>313</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>702</v>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="b">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>336</v>
-      </c>
-      <c r="E21" t="s">
-        <v>530</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E22" t="s">
-        <v>531</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s">
-        <v>313</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>703</v>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3366,25 +3414,25 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E23" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
         <v>313</v>
       </c>
-      <c r="H23">
-        <v>1</v>
+      <c r="H23" s="1">
+        <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3395,25 +3443,25 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E24" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>313</v>
       </c>
-      <c r="H24">
-        <v>1</v>
+      <c r="H24" s="1">
+        <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3424,22 +3472,22 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E25" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>313</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3450,16 +3498,16 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E26" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>313</v>
@@ -3468,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3479,16 +3527,16 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E27" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
         <v>313</v>
@@ -3497,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3508,25 +3556,22 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E28" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H28">
         <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3537,16 +3582,16 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E29" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>313</v>
@@ -3555,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3566,16 +3611,16 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E30" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>313</v>
@@ -3584,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3595,16 +3640,16 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E31" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>313</v>
@@ -3613,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3624,25 +3669,22 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E32" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
         <v>313</v>
       </c>
       <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>710</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -3653,22 +3695,25 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E33" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
         <v>313</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3679,16 +3724,16 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E34" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
         <v>313</v>
@@ -3697,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3708,22 +3753,25 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E35" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H35">
         <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3734,22 +3782,25 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E36" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H36">
         <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3757,25 +3808,28 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E37" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
         <v>313</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3783,19 +3837,19 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E38" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
         <v>313</v>
@@ -3804,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3812,28 +3866,28 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E39" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
         <v>313</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3841,25 +3895,25 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E40" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3867,25 +3921,28 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E41" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H41">
         <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3893,28 +3950,25 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E42" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H42">
-        <v>4</v>
-      </c>
-      <c r="I42" t="s">
-        <v>714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3922,28 +3976,25 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E43" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="G43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H43">
-        <v>4</v>
-      </c>
-      <c r="I43" t="s">
-        <v>714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3954,16 +4005,16 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E44" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G44" t="s">
         <v>313</v>
@@ -3971,9 +4022,6 @@
       <c r="H44">
         <v>4</v>
       </c>
-      <c r="I44" t="s">
-        <v>714</v>
-      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="b">
@@ -3983,25 +4031,25 @@
         <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E45" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G45" t="s">
         <v>313</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -4012,22 +4060,25 @@
         <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E46" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F46" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -4038,25 +4089,22 @@
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E47" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H47">
         <v>1</v>
-      </c>
-      <c r="I47" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -4067,16 +4115,16 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E48" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
         <v>314</v>
@@ -4093,22 +4141,25 @@
         <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E49" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
         <v>313</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -4119,22 +4170,25 @@
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E50" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I50" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -4145,25 +4199,25 @@
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E51" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G51" t="s">
         <v>313</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -4174,39 +4228,48 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E52" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>359</v>
+      </c>
+      <c r="E53" t="s">
+        <v>553</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -4214,22 +4277,31 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>361</v>
+      </c>
+      <c r="E54" t="s">
+        <v>554</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s">
         <v>313</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -4240,22 +4312,22 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E55" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F55" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -4266,22 +4338,22 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D56" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E56" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s">
         <v>313</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -4292,22 +4364,22 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D57" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E57" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -4318,22 +4390,25 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E58" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F58" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s">
         <v>313</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -4341,19 +4416,19 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E59" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F59" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s">
         <v>314</v>
@@ -4364,25 +4439,19 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" t="s">
-        <v>371</v>
-      </c>
-      <c r="E60" t="s">
-        <v>565</v>
+        <v>91</v>
       </c>
       <c r="F60" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -4390,28 +4459,22 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" t="s">
-        <v>372</v>
-      </c>
-      <c r="E61" t="s">
-        <v>566</v>
+        <v>91</v>
       </c>
       <c r="F61" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -4419,25 +4482,25 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E62" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F62" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -4445,25 +4508,25 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E63" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="F63" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -4471,25 +4534,25 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D64" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E64" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F64" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G64" t="s">
         <v>313</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -4497,28 +4560,25 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E65" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="F65" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G65" t="s">
         <v>313</v>
       </c>
       <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
-        <v>717</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -4529,25 +4589,22 @@
         <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D66" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E66" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F66" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G66" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H66">
         <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -4558,25 +4615,22 @@
         <v>100</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E67" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G67" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H67">
         <v>1</v>
-      </c>
-      <c r="I67" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -4587,25 +4641,22 @@
         <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E68" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F68" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H68">
         <v>1</v>
-      </c>
-      <c r="I68" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -4616,25 +4667,22 @@
         <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E69" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="F69" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H69">
         <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -4645,22 +4693,22 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E70" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F70" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G70" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -4671,22 +4719,22 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D71" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E71" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="F71" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G71" t="s">
         <v>313</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -4697,25 +4745,25 @@
         <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D72" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E72" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F72" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G72" t="s">
         <v>313</v>
       </c>
-      <c r="H72" s="1">
-        <v>3</v>
+      <c r="H72">
+        <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -4726,16 +4774,16 @@
         <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D73" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E73" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="F73" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G73" t="s">
         <v>313</v>
@@ -4744,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -4755,16 +4803,16 @@
         <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D74" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E74" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F74" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G74" t="s">
         <v>313</v>
@@ -4773,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -4784,16 +4832,16 @@
         <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D75" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E75" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F75" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G75" t="s">
         <v>313</v>
@@ -4802,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4813,16 +4861,16 @@
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D76" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E76" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F76" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G76" t="s">
         <v>313</v>
@@ -4831,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -4842,25 +4890,22 @@
         <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D77" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E77" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="F77" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G77" t="s">
         <v>313</v>
       </c>
       <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77" t="s">
-        <v>728</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -4871,25 +4916,22 @@
         <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E78" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F78" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G78" t="s">
         <v>313</v>
       </c>
       <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78" t="s">
-        <v>729</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -4900,22 +4942,25 @@
         <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D79" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E79" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F79" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G79" t="s">
         <v>313</v>
       </c>
-      <c r="H79">
-        <v>7</v>
+      <c r="H79" s="1">
+        <v>3</v>
+      </c>
+      <c r="I79" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -4926,22 +4971,25 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D80" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E80" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F80" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G80" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H80">
         <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -4952,22 +5000,25 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E81" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="F81" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="G81" t="s">
         <v>313</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -4975,19 +5026,19 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D82" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E82" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F82" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G82" t="s">
         <v>313</v>
@@ -4996,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -5004,19 +5055,19 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D83" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E83" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="F83" t="s">
-        <v>394</v>
+        <v>127</v>
       </c>
       <c r="G83" t="s">
         <v>313</v>
@@ -5025,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -5033,25 +5084,28 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D84" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E84" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F84" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G84" t="s">
         <v>313</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -5059,25 +5113,28 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D85" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E85" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F85" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G85" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H85">
         <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -5085,25 +5142,25 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>399</v>
+        <v>132</v>
       </c>
       <c r="D86" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E86" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F86" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G86" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -5111,19 +5168,19 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D87" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E87" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="F87" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G87" t="s">
         <v>314</v>
@@ -5137,25 +5194,25 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="D88" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E88" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F88" t="s">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="G88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -5166,22 +5223,25 @@
         <v>135</v>
       </c>
       <c r="C89" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D89" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E89" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F89" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H89">
         <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -5192,22 +5252,25 @@
         <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D90" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E90" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F90" t="s">
-        <v>147</v>
+        <v>394</v>
       </c>
       <c r="G90" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H90">
         <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -5218,22 +5281,22 @@
         <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D91" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E91" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="F91" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G91" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -5244,19 +5307,19 @@
         <v>135</v>
       </c>
       <c r="C92" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E92" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F92" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G92" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -5270,25 +5333,22 @@
         <v>135</v>
       </c>
       <c r="C93" t="s">
-        <v>153</v>
+        <v>399</v>
       </c>
       <c r="D93" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E93" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="F93" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G93" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H93">
         <v>1</v>
-      </c>
-      <c r="I93" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -5299,25 +5359,22 @@
         <v>135</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D94" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E94" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F94" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G94" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H94">
         <v>1</v>
-      </c>
-      <c r="I94" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -5328,128 +5385,125 @@
         <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D95" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E95" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F95" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G95" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
-      <c r="I95" t="s">
-        <v>733</v>
-      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="b">
-        <v>0</v>
+      <c r="A96" t="b">
+        <v>1</v>
       </c>
       <c r="B96" t="s">
         <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D96" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E96" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F96" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G96" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="A97" t="b">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
         <v>135</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H97" s="1">
+      <c r="C97" t="s">
+        <v>146</v>
+      </c>
+      <c r="D97" t="s">
+        <v>403</v>
+      </c>
+      <c r="E97" t="s">
+        <v>595</v>
+      </c>
+      <c r="F97" t="s">
+        <v>147</v>
+      </c>
+      <c r="G97" t="s">
+        <v>317</v>
+      </c>
+      <c r="H97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="A98" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
         <v>135</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H98" s="1">
+      <c r="C98" t="s">
+        <v>146</v>
+      </c>
+      <c r="D98" t="s">
+        <v>404</v>
+      </c>
+      <c r="E98" t="s">
+        <v>596</v>
+      </c>
+      <c r="F98" t="s">
+        <v>148</v>
+      </c>
+      <c r="G98" t="s">
+        <v>317</v>
+      </c>
+      <c r="H98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="A99" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
         <v>135</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H99" s="1">
+      <c r="C99" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" t="s">
+        <v>405</v>
+      </c>
+      <c r="E99" t="s">
+        <v>597</v>
+      </c>
+      <c r="F99" t="s">
+        <v>149</v>
+      </c>
+      <c r="G99" t="s">
+        <v>317</v>
+      </c>
+      <c r="H99">
         <v>1</v>
       </c>
     </row>
@@ -5461,16 +5515,16 @@
         <v>135</v>
       </c>
       <c r="C100" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D100" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E100" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F100" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G100" t="s">
         <v>313</v>
@@ -5479,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -5490,22 +5544,25 @@
         <v>135</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D101" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E101" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F101" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G101" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H101">
         <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -5516,135 +5573,129 @@
         <v>135</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D102" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E102" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F102" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G102" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
+      <c r="I102" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" t="b">
-        <v>1</v>
+      <c r="A103" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D103" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E103" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F103" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G103" t="s">
         <v>313</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" t="b">
-        <v>1</v>
-      </c>
-      <c r="B104" t="s">
-        <v>160</v>
-      </c>
-      <c r="C104" t="s">
-        <v>162</v>
-      </c>
-      <c r="D104" t="s">
-        <v>414</v>
-      </c>
-      <c r="E104" t="s">
-        <v>606</v>
-      </c>
-      <c r="F104" t="s">
-        <v>163</v>
-      </c>
-      <c r="G104" t="s">
-        <v>313</v>
-      </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104" t="s">
-        <v>735</v>
+      <c r="A104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" t="b">
-        <v>1</v>
-      </c>
-      <c r="B105" t="s">
-        <v>160</v>
-      </c>
-      <c r="C105" t="s">
-        <v>166</v>
-      </c>
-      <c r="D105" t="s">
-        <v>415</v>
-      </c>
-      <c r="E105" t="s">
-        <v>607</v>
-      </c>
-      <c r="F105" t="s">
-        <v>164</v>
-      </c>
-      <c r="G105" t="s">
-        <v>313</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105" t="s">
-        <v>736</v>
+      <c r="A105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" t="b">
-        <v>1</v>
-      </c>
-      <c r="B106" t="s">
-        <v>160</v>
-      </c>
-      <c r="C106" t="s">
-        <v>166</v>
-      </c>
-      <c r="D106" t="s">
-        <v>416</v>
-      </c>
-      <c r="E106" t="s">
-        <v>608</v>
-      </c>
-      <c r="F106" t="s">
-        <v>165</v>
-      </c>
-      <c r="G106" t="s">
-        <v>313</v>
-      </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106" t="s">
-        <v>737</v>
+      <c r="A106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -5652,25 +5703,28 @@
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D107" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E107" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F107" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G107" t="s">
         <v>313</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -5678,28 +5732,25 @@
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D108" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E108" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="F108" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G108" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H108">
         <v>1</v>
-      </c>
-      <c r="I108" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -5707,28 +5758,25 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C109" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D109" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E109" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F109" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G109" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H109">
         <v>1</v>
-      </c>
-      <c r="I109" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -5736,28 +5784,25 @@
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C110" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D110" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E110" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="F110" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G110" t="s">
         <v>313</v>
       </c>
       <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110" t="s">
-        <v>736</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -5765,19 +5810,19 @@
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C111" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D111" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E111" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F111" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G111" t="s">
         <v>313</v>
@@ -5786,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -5794,25 +5839,28 @@
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C112" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D112" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E112" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="F112" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G112" t="s">
         <v>313</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -5820,19 +5868,19 @@
         <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C113" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D113" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E113" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F113" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G113" t="s">
         <v>313</v>
@@ -5841,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -5849,28 +5897,25 @@
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C114" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D114" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E114" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F114" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G114" t="s">
         <v>313</v>
       </c>
       <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114" t="s">
-        <v>736</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -5878,19 +5923,19 @@
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C115" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D115" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E115" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F115" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G115" t="s">
         <v>313</v>
@@ -5899,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -5907,19 +5952,19 @@
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C116" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D116" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E116" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F116" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G116" t="s">
         <v>313</v>
@@ -5928,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -5936,19 +5981,19 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C117" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D117" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E117" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F117" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G117" t="s">
         <v>313</v>
@@ -5957,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -5965,19 +6010,19 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C118" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D118" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E118" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F118" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G118" t="s">
         <v>313</v>
@@ -5986,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -5994,28 +6039,25 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C119" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D119" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E119" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F119" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G119" t="s">
         <v>313</v>
       </c>
       <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119" t="s">
-        <v>740</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -6023,19 +6065,19 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C120" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D120" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E120" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="F120" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G120" t="s">
         <v>313</v>
@@ -6044,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -6052,19 +6094,19 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C121" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D121" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E121" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F121" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G121" t="s">
         <v>313</v>
@@ -6073,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -6081,19 +6123,19 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C122" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D122" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E122" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F122" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G122" t="s">
         <v>313</v>
@@ -6102,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -6110,19 +6152,19 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C123" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D123" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E123" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F123" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G123" t="s">
         <v>313</v>
@@ -6131,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -6139,19 +6181,19 @@
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D124" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E124" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F124" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G124" t="s">
         <v>313</v>
@@ -6160,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -6168,19 +6210,19 @@
         <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C125" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D125" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E125" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F125" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G125" t="s">
         <v>313</v>
@@ -6189,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -6197,19 +6239,19 @@
         <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C126" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D126" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E126" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="F126" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G126" t="s">
         <v>313</v>
@@ -6218,7 +6260,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -6226,19 +6268,19 @@
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C127" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D127" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E127" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F127" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G127" t="s">
         <v>313</v>
@@ -6247,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -6255,19 +6297,19 @@
         <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C128" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D128" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E128" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F128" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G128" t="s">
         <v>313</v>
@@ -6276,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -6284,19 +6326,19 @@
         <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C129" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D129" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E129" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F129" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G129" t="s">
         <v>313</v>
@@ -6305,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -6313,25 +6355,28 @@
         <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C130" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D130" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E130" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F130" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G130" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H130">
         <v>1</v>
+      </c>
+      <c r="I130" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -6339,25 +6384,28 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C131" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D131" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E131" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F131" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G131" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H131">
         <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -6365,19 +6413,19 @@
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C132" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D132" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E132" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F132" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G132" t="s">
         <v>313</v>
@@ -6386,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -6394,19 +6442,19 @@
         <v>1</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C133" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D133" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E133" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F133" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G133" t="s">
         <v>313</v>
@@ -6415,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -6423,19 +6471,19 @@
         <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C134" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D134" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E134" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="F134" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G134" t="s">
         <v>313</v>
@@ -6444,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -6452,19 +6500,19 @@
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C135" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D135" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E135" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F135" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G135" t="s">
         <v>313</v>
@@ -6473,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -6481,25 +6529,28 @@
         <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C136" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D136" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E136" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="F136" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G136" t="s">
         <v>313</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -6510,16 +6561,16 @@
         <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D137" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E137" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F137" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G137" t="s">
         <v>314</v>
@@ -6536,16 +6587,16 @@
         <v>204</v>
       </c>
       <c r="C138" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D138" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E138" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="F138" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G138" t="s">
         <v>314</v>
@@ -6562,22 +6613,25 @@
         <v>204</v>
       </c>
       <c r="C139" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D139" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E139" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F139" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G139" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H139">
         <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -6588,22 +6642,25 @@
         <v>204</v>
       </c>
       <c r="C140" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D140" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E140" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F140" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G140" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H140">
         <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -6614,22 +6671,25 @@
         <v>204</v>
       </c>
       <c r="C141" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D141" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E141" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F141" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G141" t="s">
         <v>313</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -6640,25 +6700,25 @@
         <v>204</v>
       </c>
       <c r="C142" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D142" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E142" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="F142" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G142" t="s">
         <v>313</v>
       </c>
-      <c r="H142" s="2">
+      <c r="H142">
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -6669,22 +6729,22 @@
         <v>204</v>
       </c>
       <c r="C143" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D143" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E143" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F143" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G143" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -6692,19 +6752,19 @@
         <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C144" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D144" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E144" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="F144" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G144" t="s">
         <v>314</v>
@@ -6718,19 +6778,19 @@
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C145" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D145" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E145" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F145" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G145" t="s">
         <v>314</v>
@@ -6744,28 +6804,25 @@
         <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C146" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D146" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E146" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="F146" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G146" t="s">
-        <v>313</v>
-      </c>
-      <c r="H146" s="1">
-        <v>2</v>
-      </c>
-      <c r="I146" t="s">
-        <v>774</v>
+        <v>314</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -6773,28 +6830,25 @@
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C147" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D147" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E147" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F147" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G147" t="s">
-        <v>313</v>
-      </c>
-      <c r="H147" s="1">
-        <v>2</v>
-      </c>
-      <c r="I147" t="s">
-        <v>774</v>
+        <v>314</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -6802,28 +6856,25 @@
         <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C148" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D148" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E148" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="F148" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G148" t="s">
         <v>313</v>
       </c>
-      <c r="H148" s="2">
-        <v>1</v>
-      </c>
-      <c r="I148" t="s">
-        <v>755</v>
+      <c r="H148">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -6831,28 +6882,28 @@
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C149" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D149" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E149" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F149" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G149" t="s">
         <v>313</v>
       </c>
-      <c r="H149">
-        <v>3</v>
+      <c r="H149" s="2">
+        <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -6860,19 +6911,19 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C150" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D150" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E150" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F150" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G150" t="s">
         <v>314</v>
@@ -6889,16 +6940,16 @@
         <v>225</v>
       </c>
       <c r="C151" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D151" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E151" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F151" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G151" t="s">
         <v>314</v>
@@ -6915,25 +6966,22 @@
         <v>225</v>
       </c>
       <c r="C152" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D152" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E152" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="F152" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G152" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H152">
         <v>1</v>
-      </c>
-      <c r="I152" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -6944,25 +6992,25 @@
         <v>225</v>
       </c>
       <c r="C153" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D153" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E153" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F153" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G153" t="s">
         <v>313</v>
       </c>
-      <c r="H153">
-        <v>1</v>
+      <c r="H153" s="1">
+        <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -6973,25 +7021,25 @@
         <v>225</v>
       </c>
       <c r="C154" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D154" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E154" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="F154" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G154" t="s">
         <v>313</v>
       </c>
-      <c r="H154">
-        <v>1</v>
+      <c r="H154" s="1">
+        <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -7002,25 +7050,25 @@
         <v>225</v>
       </c>
       <c r="C155" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D155" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E155" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F155" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G155" t="s">
         <v>313</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="2">
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -7028,28 +7076,28 @@
         <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C156" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D156" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E156" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="F156" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G156" t="s">
         <v>313</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I156" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -7057,28 +7105,25 @@
         <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C157" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D157" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E157" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F157" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G157" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H157">
         <v>1</v>
-      </c>
-      <c r="I157" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -7086,25 +7131,25 @@
         <v>1</v>
       </c>
       <c r="B158" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C158" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D158" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E158" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="F158" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G158" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -7112,25 +7157,28 @@
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C159" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D159" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E159" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F159" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G159" t="s">
         <v>313</v>
       </c>
       <c r="H159">
         <v>1</v>
+      </c>
+      <c r="I159" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -7138,19 +7186,19 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C160" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D160" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E160" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="F160" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G160" t="s">
         <v>313</v>
@@ -7158,25 +7206,28 @@
       <c r="H160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="b">
         <v>1</v>
       </c>
       <c r="B161" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C161" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D161" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E161" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F161" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G161" t="s">
         <v>313</v>
@@ -7184,25 +7235,28 @@
       <c r="H161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="b">
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D162" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E162" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="F162" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="G162" t="s">
         <v>313</v>
@@ -7210,25 +7264,28 @@
       <c r="H162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="b">
         <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C163" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D163" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E163" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F163" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="G163" t="s">
         <v>313</v>
@@ -7236,25 +7293,28 @@
       <c r="H163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="b">
         <v>1</v>
       </c>
       <c r="B164" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C164" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D164" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E164" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="F164" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G164" t="s">
         <v>313</v>
@@ -7262,34 +7322,37 @@
       <c r="H164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="b">
         <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C165" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D165" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E165" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F165" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="G165" t="s">
         <v>313</v>
       </c>
       <c r="H165">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="b">
         <v>1</v>
       </c>
@@ -7297,16 +7360,16 @@
         <v>246</v>
       </c>
       <c r="C166" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D166" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E166" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="F166" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="G166" t="s">
         <v>313</v>
@@ -7315,7 +7378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="b">
         <v>1</v>
       </c>
@@ -7323,25 +7386,25 @@
         <v>246</v>
       </c>
       <c r="C167" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D167" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E167" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F167" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G167" t="s">
         <v>313</v>
       </c>
       <c r="H167">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="b">
         <v>1</v>
       </c>
@@ -7349,25 +7412,25 @@
         <v>246</v>
       </c>
       <c r="C168" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D168" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E168" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="F168" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G168" t="s">
         <v>313</v>
       </c>
       <c r="H168">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="b">
         <v>1</v>
       </c>
@@ -7375,25 +7438,25 @@
         <v>246</v>
       </c>
       <c r="C169" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D169" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E169" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F169" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G169" t="s">
         <v>313</v>
       </c>
       <c r="H169">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="b">
         <v>1</v>
       </c>
@@ -7401,16 +7464,16 @@
         <v>246</v>
       </c>
       <c r="C170" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D170" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E170" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F170" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="G170" t="s">
         <v>313</v>
@@ -7419,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="b">
         <v>1</v>
       </c>
@@ -7427,25 +7490,25 @@
         <v>246</v>
       </c>
       <c r="C171" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D171" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E171" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F171" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="G171" t="s">
         <v>313</v>
       </c>
       <c r="H171">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="b">
         <v>1</v>
       </c>
@@ -7453,25 +7516,25 @@
         <v>246</v>
       </c>
       <c r="C172" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D172" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E172" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="F172" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="G172" t="s">
         <v>313</v>
       </c>
       <c r="H172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="b">
         <v>1</v>
       </c>
@@ -7479,16 +7542,16 @@
         <v>246</v>
       </c>
       <c r="C173" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D173" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E173" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F173" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="G173" t="s">
         <v>313</v>
@@ -7497,7 +7560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="b">
         <v>1</v>
       </c>
@@ -7505,25 +7568,25 @@
         <v>246</v>
       </c>
       <c r="C174" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D174" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E174" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="F174" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G174" t="s">
         <v>313</v>
       </c>
       <c r="H174">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="b">
         <v>1</v>
       </c>
@@ -7531,16 +7594,16 @@
         <v>246</v>
       </c>
       <c r="C175" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D175" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E175" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F175" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="G175" t="s">
         <v>313</v>
@@ -7549,7 +7612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="b">
         <v>1</v>
       </c>
@@ -7557,22 +7620,22 @@
         <v>246</v>
       </c>
       <c r="C176" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D176" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E176" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="F176" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G176" t="s">
         <v>313</v>
       </c>
       <c r="H176">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -7583,22 +7646,22 @@
         <v>246</v>
       </c>
       <c r="C177" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D177" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E177" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F177" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="G177" t="s">
         <v>313</v>
       </c>
       <c r="H177">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -7609,16 +7672,16 @@
         <v>246</v>
       </c>
       <c r="C178" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D178" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E178" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="F178" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G178" t="s">
         <v>313</v>
@@ -7632,28 +7695,25 @@
         <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="C179" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D179" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E179" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F179" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="G179" t="s">
         <v>313</v>
       </c>
       <c r="H179">
         <v>1</v>
-      </c>
-      <c r="I179" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -7661,28 +7721,25 @@
         <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="C180" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D180" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="E180" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="F180" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G180" t="s">
         <v>313</v>
       </c>
       <c r="H180">
         <v>1</v>
-      </c>
-      <c r="I180" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -7690,28 +7747,25 @@
         <v>1</v>
       </c>
       <c r="B181" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="C181" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D181" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E181" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F181" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G181" t="s">
         <v>313</v>
       </c>
       <c r="H181">
-        <v>1</v>
-      </c>
-      <c r="I181" t="s">
-        <v>762</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -7719,28 +7773,25 @@
         <v>1</v>
       </c>
       <c r="B182" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="C182" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D182" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E182" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="F182" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G182" t="s">
         <v>313</v>
       </c>
       <c r="H182">
-        <v>1</v>
-      </c>
-      <c r="I182" t="s">
-        <v>763</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -7748,28 +7799,25 @@
         <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="C183" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D183" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="E183" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F183" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="G183" t="s">
         <v>313</v>
       </c>
       <c r="H183">
-        <v>1</v>
-      </c>
-      <c r="I183" t="s">
-        <v>764</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -7777,28 +7825,25 @@
         <v>1</v>
       </c>
       <c r="B184" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="C184" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D184" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E184" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F184" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="G184" t="s">
         <v>313</v>
       </c>
       <c r="H184">
-        <v>1</v>
-      </c>
-      <c r="I184" t="s">
-        <v>765</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -7806,19 +7851,19 @@
         <v>1</v>
       </c>
       <c r="B185" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="C185" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D185" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E185" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F185" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G185" t="s">
         <v>313</v>
@@ -7835,16 +7880,16 @@
         <v>286</v>
       </c>
       <c r="C186" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D186" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="E186" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="F186" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G186" t="s">
         <v>313</v>
@@ -7853,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -7864,16 +7909,16 @@
         <v>286</v>
       </c>
       <c r="C187" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D187" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E187" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F187" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="G187" t="s">
         <v>313</v>
@@ -7882,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -7893,16 +7938,16 @@
         <v>286</v>
       </c>
       <c r="C188" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D188" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E188" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F188" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="G188" t="s">
         <v>313</v>
@@ -7911,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -7922,16 +7967,16 @@
         <v>286</v>
       </c>
       <c r="C189" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D189" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E189" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F189" t="s">
-        <v>500</v>
+        <v>293</v>
       </c>
       <c r="G189" t="s">
         <v>313</v>
@@ -7940,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -7951,16 +7996,16 @@
         <v>286</v>
       </c>
       <c r="C190" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D190" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E190" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="F190" t="s">
-        <v>502</v>
+        <v>295</v>
       </c>
       <c r="G190" t="s">
         <v>313</v>
@@ -7969,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -7977,19 +8022,19 @@
         <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C191" t="s">
-        <v>503</v>
+        <v>296</v>
       </c>
       <c r="D191" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="E191" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F191" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G191" t="s">
         <v>313</v>
@@ -7998,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -8006,28 +8051,25 @@
         <v>1</v>
       </c>
       <c r="B192" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C192" t="s">
-        <v>503</v>
+        <v>299</v>
       </c>
       <c r="D192" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E192" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="F192" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G192" t="s">
         <v>313</v>
       </c>
       <c r="H192">
-        <v>1</v>
-      </c>
-      <c r="I192" t="s">
-        <v>772</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -8035,19 +8077,19 @@
         <v>1</v>
       </c>
       <c r="B193" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C193" t="s">
-        <v>503</v>
+        <v>302</v>
       </c>
       <c r="D193" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="E193" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F193" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G193" t="s">
         <v>313</v>
@@ -8056,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -8064,19 +8106,19 @@
         <v>1</v>
       </c>
       <c r="B194" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C194" t="s">
-        <v>503</v>
+        <v>302</v>
       </c>
       <c r="D194" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="E194" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="F194" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G194" t="s">
         <v>313</v>
@@ -8085,7 +8127,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -8093,32 +8135,235 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
+        <v>286</v>
+      </c>
+      <c r="C195" t="s">
+        <v>304</v>
+      </c>
+      <c r="D195" t="s">
+        <v>498</v>
+      </c>
+      <c r="E195" t="s">
+        <v>690</v>
+      </c>
+      <c r="F195" t="s">
+        <v>303</v>
+      </c>
+      <c r="G195" t="s">
+        <v>313</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" t="b">
+        <v>1</v>
+      </c>
+      <c r="B196" t="s">
+        <v>286</v>
+      </c>
+      <c r="C196" t="s">
+        <v>305</v>
+      </c>
+      <c r="D196" t="s">
+        <v>499</v>
+      </c>
+      <c r="E196" t="s">
+        <v>691</v>
+      </c>
+      <c r="F196" t="s">
+        <v>500</v>
+      </c>
+      <c r="G196" t="s">
+        <v>313</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" t="b">
+        <v>1</v>
+      </c>
+      <c r="B197" t="s">
+        <v>286</v>
+      </c>
+      <c r="C197" t="s">
+        <v>305</v>
+      </c>
+      <c r="D197" t="s">
+        <v>501</v>
+      </c>
+      <c r="E197" t="s">
+        <v>692</v>
+      </c>
+      <c r="F197" t="s">
+        <v>502</v>
+      </c>
+      <c r="G197" t="s">
+        <v>313</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" t="b">
+        <v>1</v>
+      </c>
+      <c r="B198" t="s">
         <v>306</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C198" t="s">
         <v>503</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D198" t="s">
+        <v>504</v>
+      </c>
+      <c r="E198" t="s">
+        <v>693</v>
+      </c>
+      <c r="F198" t="s">
+        <v>307</v>
+      </c>
+      <c r="G198" t="s">
+        <v>313</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" t="b">
+        <v>1</v>
+      </c>
+      <c r="B199" t="s">
+        <v>306</v>
+      </c>
+      <c r="C199" t="s">
+        <v>503</v>
+      </c>
+      <c r="D199" t="s">
+        <v>505</v>
+      </c>
+      <c r="E199" t="s">
+        <v>694</v>
+      </c>
+      <c r="F199" t="s">
+        <v>308</v>
+      </c>
+      <c r="G199" t="s">
+        <v>313</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" t="b">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
+        <v>306</v>
+      </c>
+      <c r="C200" t="s">
+        <v>503</v>
+      </c>
+      <c r="D200" t="s">
+        <v>506</v>
+      </c>
+      <c r="E200" t="s">
+        <v>695</v>
+      </c>
+      <c r="F200" t="s">
+        <v>309</v>
+      </c>
+      <c r="G200" t="s">
+        <v>313</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" t="b">
+        <v>1</v>
+      </c>
+      <c r="B201" t="s">
+        <v>306</v>
+      </c>
+      <c r="C201" t="s">
+        <v>503</v>
+      </c>
+      <c r="D201" t="s">
+        <v>507</v>
+      </c>
+      <c r="E201" t="s">
+        <v>696</v>
+      </c>
+      <c r="F201" t="s">
+        <v>310</v>
+      </c>
+      <c r="G201" t="s">
+        <v>313</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" t="b">
+        <v>1</v>
+      </c>
+      <c r="B202" t="s">
+        <v>306</v>
+      </c>
+      <c r="C202" t="s">
+        <v>503</v>
+      </c>
+      <c r="D202" t="s">
         <v>508</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E202" t="s">
         <v>697</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F202" t="s">
         <v>311</v>
       </c>
-      <c r="G195" t="s">
-        <v>313</v>
-      </c>
-      <c r="H195">
-        <v>1</v>
-      </c>
-      <c r="I195" t="s">
+      <c r="G202" t="s">
+        <v>313</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202" t="s">
         <v>773</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I195" xr:uid="{683DBB0C-090F-B94F-B48C-D3FDF1FE3576}"/>
+  <autoFilter ref="A1:I202" xr:uid="{683DBB0C-090F-B94F-B48C-D3FDF1FE3576}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>